--- a/Datasets/vjcortesa_Game settings overview.xlsx
+++ b/Datasets/vjcortesa_Game settings overview.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/jcortesarevalo_tudelft_nl/Documents/Documents/TUDelft/18_Game Data Analysis/R data analysis BEPs/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="11_17BD9CE9DE5963A737E2A88EECCD9B14BD7B6479" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16887F81-2266-4CC0-9E27-3BE71D24A3F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{7E57748F-15A6-4D3F-A817-32F523629591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="newseffects" sheetId="2" r:id="rId2"/>
-    <sheet name="community" sheetId="3" r:id="rId3"/>
-    <sheet name="Welfare" sheetId="4" r:id="rId4"/>
-    <sheet name="Measures" sheetId="5" r:id="rId5"/>
-    <sheet name="House Overview" sheetId="6" r:id="rId6"/>
+    <sheet name="welfaretype db" sheetId="11" r:id="rId3"/>
+    <sheet name="Welfare" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="community" sheetId="3" r:id="rId5"/>
+    <sheet name="measurestype db" sheetId="8" r:id="rId6"/>
+    <sheet name="Gameboard" sheetId="7" r:id="rId7"/>
+    <sheet name="Measures" sheetId="5" state="hidden" r:id="rId8"/>
+    <sheet name="House Overview" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="initialhousemeasure db" sheetId="9" r:id="rId10"/>
+    <sheet name="house db" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'House Overview'!$A$2:$G$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'House Overview'!$A$2:$G$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -133,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="260">
   <si>
     <t>session_20_251007_VerzekeraarsMasterClass</t>
   </si>
@@ -156,9 +161,6 @@
     <t>Rounds</t>
   </si>
   <si>
-    <t>30 (Afternoon session)</t>
-  </si>
-  <si>
     <t>moving</t>
   </si>
   <si>
@@ -175,14 +177,6 @@
   </si>
   <si>
     <t>measures</t>
-  </si>
-  <si>
-    <t>No rise ground and self-rising bulkead. Replaced in the houses that had it</t>
-  </si>
-  <si>
-    <t>In addition to the previous settings
-- No pump and insurance from 
-- Reduce price of measures to half</t>
   </si>
   <si>
     <t>65, 85,95, 115, 135, 195 = (+15 income and + 10 living costs)</t>
@@ -204,24 +198,6 @@
     <t>session</t>
   </si>
   <si>
-    <t>240924_EPA_IntroDays_Ommen | 2: House discounts and More rain</t>
-  </si>
-  <si>
-    <t>240924_EPA_IntroDays_Ommen | 3: Taxes increase</t>
-  </si>
-  <si>
-    <t>250923_EPA_IntroDays_Overasselt | 3: Climate change</t>
-  </si>
-  <si>
-    <t>250923_EPA_IntroDays_Overasselt | 4: Taxes Naturcity +5k</t>
-  </si>
-  <si>
-    <t>251007_VerzekeraarsMasterClass | 3: Climate change</t>
-  </si>
-  <si>
-    <t>251007_VerzekeraarsMasterClass | 4: Taxes Naturcity +5k</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -240,30 +216,15 @@
     <t>house_discount_round1</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>house_discount_round2</t>
   </si>
   <si>
-    <t>5000</t>
-  </si>
-  <si>
     <t>house_discount_round3</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>house_discount_effect_pluvial</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>house_discount_effect_fluvial</t>
   </si>
   <si>
@@ -273,49 +234,22 @@
     <t>pluvial_protection_change</t>
   </si>
   <si>
-    <t>-2</t>
-  </si>
-  <si>
     <t>fluvial_protection_change</t>
   </si>
   <si>
-    <t>-1</t>
-  </si>
-  <si>
     <t>tax_change</t>
   </si>
   <si>
     <t>satisfaction_living_bonus</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>satisfaction_move_change</t>
   </si>
   <si>
     <t>newsitem_id</t>
   </si>
   <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
     <t>community_id</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>32</t>
   </si>
   <si>
     <t>community_name</t>
@@ -660,6 +594,54 @@
     </r>
   </si>
   <si>
+    <t>Board X</t>
+  </si>
+  <si>
+    <t>Board Y</t>
+  </si>
+  <si>
+    <t>U07</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t>Green garden</t>
+  </si>
+  <si>
+    <t>Self-activating wall</t>
+  </si>
+  <si>
+    <t>Underground rainbarrel</t>
+  </si>
+  <si>
+    <t>Waterproof walls, floors</t>
+  </si>
+  <si>
+    <t>Structural house changes</t>
+  </si>
+  <si>
+    <t>Flood insurance</t>
+  </si>
+  <si>
+    <t>short_alias</t>
+  </si>
+  <si>
+    <t>%House cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> %House cost</t>
+  </si>
+  <si>
+    <t>%Round income</t>
+  </si>
+  <si>
+    <t>30 (Table 4-8)</t>
+  </si>
+  <si>
+    <t>30 (Table 1-4)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1 &amp; 4: Search for an affordable house
 2: Revisit flood damages
@@ -672,7 +654,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>3: Lower flood protection and make flood insurance available</t>
+      <t>3: Lower flood protection (-2 rain and -1 river)</t>
     </r>
     <r>
       <rPr>
@@ -706,7 +688,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>2: House value discounts due to flood &amp; more rain together</t>
+      <t xml:space="preserve">2: House value discounts (not fully functional in the game so removed afterwards) &amp; lower flood prtection </t>
     </r>
     <r>
       <rPr>
@@ -728,6 +710,369 @@
       <t>3: Taxes increase in Natucity but + 2 Natucity satisfaction</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 &amp; 4: Search for an affordable house
+2: Revisit flood damages
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>3: Lower flood protection (-2 river and -1 rain)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4: Tax, flood and satisfaction increase in natucity. </t>
+    </r>
+  </si>
+  <si>
+    <t>In addition to the previous settings
+- No pump
+- Reduce price of measures to half</t>
+  </si>
+  <si>
+    <t>No rise ground and self-rising bulkead. These measures were replaced in the measures that had them</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>available_round</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>initial_pluvial_protection</t>
+  </si>
+  <si>
+    <t>initial_fluvial_protection</t>
+  </si>
+  <si>
+    <t>Stickroad 17</t>
+  </si>
+  <si>
+    <t>Twiglane 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stickroad 21_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twiglane 8_x000D_
+</t>
+  </si>
+  <si>
+    <t>Twiglane 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leafstreet 28_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leafstreet 26_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stonelane 13_x000D_
+</t>
+  </si>
+  <si>
+    <t>Stonelane 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stonelane 15_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steelstreet 22_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steelstreet 20_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steelstreet 25_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steelstreet 23_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brickroad 8_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>Brickroad 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brickroad 6_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woolstreet 33_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woolstreet 37_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woolstreet 35_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassroad 54_x000D_
+</t>
+  </si>
+  <si>
+    <t>Grassroad 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grassroad 51_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>Grassroad 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twiglane 46_x000D_
+_x000D_
+</t>
+  </si>
+  <si>
+    <t>Twiglane 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twiglane 48_x000D_
+</t>
+  </si>
+  <si>
+    <t>round_number</t>
+  </si>
+  <si>
+    <t>house_code</t>
+  </si>
+  <si>
+    <t>N02 steel walls</t>
+  </si>
+  <si>
+    <t>N02 water pump</t>
+  </si>
+  <si>
+    <t>N03 Rain Barrel</t>
+  </si>
+  <si>
+    <t>Rainbarrel for recycling</t>
+  </si>
+  <si>
+    <t>N03 Flood wall</t>
+  </si>
+  <si>
+    <t>N06 sandbags</t>
+  </si>
+  <si>
+    <t>D06 water pump</t>
+  </si>
+  <si>
+    <t>D07 flood wall</t>
+  </si>
+  <si>
+    <t>D07 water resist</t>
+  </si>
+  <si>
+    <t>D08 Green Garden</t>
+  </si>
+  <si>
+    <t>D08 Water proof walls and floors</t>
+  </si>
+  <si>
+    <t>U02 flood wall</t>
+  </si>
+  <si>
+    <t>U03 green garden</t>
+  </si>
+  <si>
+    <t>U03 flood wall</t>
+  </si>
+  <si>
+    <t>U06 sandbags</t>
+  </si>
+  <si>
+    <t>U07 water pump</t>
+  </si>
+  <si>
+    <t>U07 flood wall</t>
+  </si>
+  <si>
+    <t>U07 walls floors</t>
+  </si>
+  <si>
+    <t>U08 Water proof walls and floors</t>
+  </si>
+  <si>
+    <t>D06 water resist</t>
+  </si>
+  <si>
+    <t>D06 flood wall</t>
+  </si>
+  <si>
+    <t>D08 Waterproof walls</t>
+  </si>
+  <si>
+    <t>session_20_251007_VerzekeraarsMasterClass
+session_19_250923_EPA_IntroDays_Overasselt</t>
+  </si>
+  <si>
+    <t>satisfaction_delta_once</t>
+  </si>
+  <si>
+    <t>pluvial_protection_delta</t>
+  </si>
+  <si>
+    <t>fluvial_protection_delta</t>
+  </si>
+  <si>
+    <t>valid_one_round</t>
+  </si>
+  <si>
+    <t>valid_until_used</t>
+  </si>
+  <si>
+    <t>absolute cost</t>
+  </si>
+  <si>
+    <t>Calculated cost</t>
+  </si>
+  <si>
+    <t>Absolute cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2: House discounts and More rain</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>3: Taxes increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3: Climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250923_EPA_IntroDays_Overasselt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4: Taxes Naturcity +5k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: For the Table 1 to Table 4, the rain and river protection change was the other way around. By mistake, rain -1 and river -2. For Table 5 to 8 the settings were corrected </t>
+  </si>
+  <si>
+    <t>initial_satisfaction</t>
+  </si>
+  <si>
+    <t>initial_money</t>
+  </si>
+  <si>
+    <t>maximum_mortgage</t>
+  </si>
+  <si>
+    <t>living_costs</t>
+  </si>
+  <si>
+    <t>round_income</t>
+  </si>
+  <si>
+    <t>satisfaction_cost_per_point</t>
+  </si>
+  <si>
+    <t>preferred_house_rating</t>
+  </si>
+  <si>
+    <t>scenario_id</t>
+  </si>
+  <si>
+    <t>Welfare 050</t>
+  </si>
+  <si>
+    <t>Welfare 065</t>
+  </si>
+  <si>
+    <t>Welfare 080</t>
+  </si>
+  <si>
+    <t>Welfare 100</t>
+  </si>
+  <si>
+    <t>Welfare 120</t>
+  </si>
+  <si>
+    <t>Welfare 180</t>
+  </si>
+  <si>
+    <t>250923_EPA_IntroDays_Overasselt  | 251007_VerzekeraarsMasterClass</t>
+  </si>
+  <si>
+    <t>Welfare 060=(50 +10 Income) +10 Living costs</t>
+  </si>
+  <si>
+    <t>Welfare 075=(65 +10 Income) +10 Living costs+5sat</t>
+  </si>
+  <si>
+    <t>Welfare 090=(80 +10 Income) +10 Living costs+5sat</t>
+  </si>
+  <si>
+    <t>Welfare 110=(100 +10 Income) +10 Living costs+5sat</t>
+  </si>
+  <si>
+    <t>Welfare 130=(120 +10 Income) +10 Living costs+5sat</t>
+  </si>
+  <si>
+    <t>Welfare 190=(180 +10 Income) +10 Living costs+5sat</t>
+  </si>
 </sst>
 </file>
 
@@ -736,7 +1081,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,6 +1164,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -858,7 +1217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -975,12 +1334,234 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1113,40 +1694,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1161,18 +1864,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1208,48 +1953,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1267,6 +1970,1096 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Game board</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Houses</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gameboard!$B$2:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gameboard!$C$2:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AFAA-4F3B-B5C3-95D94ECCE48C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1159478335"/>
+        <c:axId val="1159478815"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1159478335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1159478815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1159478815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1159478335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1307,6 +3100,91 @@
         <a:xfrm>
           <a:off x="0" y="3562350"/>
           <a:ext cx="6765812" cy="5189982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>536574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122F9793-7054-2E94-2924-C0E7B47E4981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>285637</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>170307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E549BC-5199-46F3-AC35-1693AD991B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="228600"/>
+          <a:ext cx="6762637" cy="5189982"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1735,704 +3613,2762 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.54296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="40.36328125" customWidth="1"/>
-    <col min="3" max="3" width="39.90625" customWidth="1"/>
-    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="2" max="3" width="40.36328125" customWidth="1"/>
+    <col min="4" max="4" width="39.90625" customWidth="1"/>
+    <col min="5" max="5" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="83"/>
+      <c r="E1" s="44" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="50">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="45">
+      <c r="C2" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="51">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="84">
         <v>4</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="85"/>
+      <c r="E3" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="93"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="48" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="45" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>162</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6F0D2D-4F27-4E2B-BFDD-AC2CF20AB62E}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="30">
+        <v>220</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="30">
+        <v>4</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="30">
+        <v>1</v>
+      </c>
+      <c r="F3" s="30">
+        <v>1</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="30">
+        <v>4</v>
+      </c>
+      <c r="J3" s="30">
+        <v>1</v>
+      </c>
+      <c r="K3" s="30">
+        <v>1</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="30">
+        <v>222</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="30">
+        <v>4</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="30">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="57"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="30">
+        <v>225</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="30">
+        <v>3</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30">
+        <v>1</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="30">
+        <v>3</v>
+      </c>
+      <c r="J5" s="30">
+        <v>1</v>
+      </c>
+      <c r="K5" s="30">
+        <v>1</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="30">
+        <v>228</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="30">
+        <v>3</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="30">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30">
+        <v>1</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="30">
+        <v>3</v>
+      </c>
+      <c r="J6" s="30">
+        <v>1</v>
+      </c>
+      <c r="K6" s="30">
+        <v>1</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="30">
+        <v>234</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="30">
+        <v>2</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="I7" s="30">
+        <v>2</v>
+      </c>
+      <c r="J7" s="30">
+        <v>1</v>
+      </c>
+      <c r="K7" s="30">
+        <v>1</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="30">
+        <v>223</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="30">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="I8" s="30">
+        <v>4</v>
+      </c>
+      <c r="J8" s="30">
+        <v>1</v>
+      </c>
+      <c r="K8" s="30">
+        <v>0</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="I9" s="30">
+        <v>3</v>
+      </c>
+      <c r="J9" s="30">
+        <v>1</v>
+      </c>
+      <c r="K9" s="30">
+        <v>0</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="30">
+        <v>221</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="30">
+        <v>3</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="30">
+        <v>2</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="30">
+        <v>3</v>
+      </c>
+      <c r="J10" s="30">
+        <v>1</v>
+      </c>
+      <c r="K10" s="30">
+        <v>2</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="30">
+        <v>236</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="30">
+        <v>4</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30">
+        <v>2</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" s="30">
+        <v>4</v>
+      </c>
+      <c r="J11" s="30">
+        <v>1</v>
+      </c>
+      <c r="K11" s="30">
+        <v>2</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="30">
+        <v>218</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="30">
+        <v>2</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>2</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" s="30">
+        <v>2</v>
+      </c>
+      <c r="J12" s="30">
+        <v>1</v>
+      </c>
+      <c r="K12" s="30">
+        <v>2</v>
+      </c>
+      <c r="L12" s="57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="30">
+        <v>226</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="30">
+        <v>2</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30">
+        <v>2</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="30">
+        <v>2</v>
+      </c>
+      <c r="J13" s="30">
+        <v>1</v>
+      </c>
+      <c r="K13" s="30">
+        <v>2</v>
+      </c>
+      <c r="L13" s="57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="30">
+        <v>229</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="30">
+        <v>2</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
+        <v>1</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="30">
+        <v>2</v>
+      </c>
+      <c r="J14" s="30">
+        <v>0</v>
+      </c>
+      <c r="K14" s="30">
+        <v>1</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="30">
+        <v>219</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="30">
+        <v>1</v>
+      </c>
+      <c r="F15" s="30">
+        <v>1</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" s="30">
+        <v>1</v>
+      </c>
+      <c r="J15" s="30">
+        <v>1</v>
+      </c>
+      <c r="K15" s="30">
+        <v>1</v>
+      </c>
+      <c r="L15" s="57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="30">
+        <v>230</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="30">
+        <v>3</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1</v>
+      </c>
+      <c r="F16" s="30">
+        <v>1</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="I16" s="30">
+        <v>3</v>
+      </c>
+      <c r="J16" s="30">
+        <v>1</v>
+      </c>
+      <c r="K16" s="30">
+        <v>1</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="30">
+        <v>235</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="30">
+        <v>2</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="30">
+        <v>1</v>
+      </c>
+      <c r="F17" s="30">
+        <v>1</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" s="30">
+        <v>2</v>
+      </c>
+      <c r="J17" s="30">
+        <v>1</v>
+      </c>
+      <c r="K17" s="30">
+        <v>1</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="30">
+        <v>224</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C18" s="30">
+        <v>3</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="30">
+        <v>1</v>
+      </c>
+      <c r="F18" s="30">
+        <v>2</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="30">
+        <v>4</v>
+      </c>
+      <c r="J18" s="30">
+        <v>1</v>
+      </c>
+      <c r="K18" s="30">
+        <v>2</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="30">
+        <v>231</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="30">
+        <v>4</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="30">
+        <v>1</v>
+      </c>
+      <c r="F19" s="30">
+        <v>2</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="I19" s="30">
+        <v>3</v>
+      </c>
+      <c r="J19" s="30">
+        <v>1</v>
+      </c>
+      <c r="K19" s="30">
+        <v>2</v>
+      </c>
+      <c r="L19" s="57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="30">
+        <v>233</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="30">
+        <v>3</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1</v>
+      </c>
+      <c r="F20" s="30">
+        <v>2</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="30">
+        <v>227</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="30">
+        <v>2</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="30">
+        <v>1</v>
+      </c>
+      <c r="F21" s="30">
+        <v>2</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="I21" s="30">
+        <v>2</v>
+      </c>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC22BAAD-35DF-4A7C-A927-32E2A19C9F25}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="30">
+        <v>218</v>
+      </c>
+      <c r="B3" s="30">
+        <v>425000</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="30">
+        <v>9</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="30">
+        <v>0</v>
+      </c>
+      <c r="H3" s="57">
+        <v>1</v>
+      </c>
+      <c r="I3" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="30">
+        <v>219</v>
+      </c>
+      <c r="B4" s="30">
+        <v>200000</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="30">
+        <v>6</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30">
+        <v>1</v>
+      </c>
+      <c r="H4" s="57">
+        <v>4</v>
+      </c>
+      <c r="I4" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="30">
+        <v>220</v>
+      </c>
+      <c r="B5" s="30">
+        <v>425000</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="30">
+        <v>9</v>
+      </c>
+      <c r="F5" s="30">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30">
+        <v>1</v>
+      </c>
+      <c r="H5" s="57">
+        <v>4</v>
+      </c>
+      <c r="I5" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="30">
+        <v>221</v>
+      </c>
+      <c r="B6" s="30">
+        <v>200000</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="30">
+        <v>6</v>
+      </c>
+      <c r="F6" s="30">
+        <v>0</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="57">
+        <v>1</v>
+      </c>
+      <c r="I6" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="30">
+        <v>222</v>
+      </c>
+      <c r="B7" s="30">
+        <v>200000</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="30">
+        <v>6</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="57">
+        <v>2</v>
+      </c>
+      <c r="I7" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="30">
+        <v>223</v>
+      </c>
+      <c r="B8" s="30">
+        <v>100000</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="30">
+        <v>3</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" s="30">
+        <v>1</v>
+      </c>
+      <c r="H8" s="57">
+        <v>3</v>
+      </c>
+      <c r="I8" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="30">
+        <v>224</v>
+      </c>
+      <c r="B9" s="30">
+        <v>100000</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="30">
+        <v>3</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="57">
+        <v>1</v>
+      </c>
+      <c r="I9" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="30">
+        <v>225</v>
+      </c>
+      <c r="B10" s="30">
+        <v>300000</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="30">
+        <v>8</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="57">
+        <v>1</v>
+      </c>
+      <c r="I10" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="30">
+        <v>226</v>
+      </c>
+      <c r="B11" s="30">
+        <v>300000</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="30">
+        <v>8</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="57">
+        <v>2</v>
+      </c>
+      <c r="I11" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="30">
+        <v>227</v>
+      </c>
+      <c r="B12" s="30">
+        <v>300000</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="30">
+        <v>8</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="57">
+        <v>3</v>
+      </c>
+      <c r="I12" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="30">
+        <v>228</v>
+      </c>
+      <c r="B13" s="30">
+        <v>160000</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="30">
+        <v>5</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0</v>
+      </c>
+      <c r="H13" s="57">
+        <v>1</v>
+      </c>
+      <c r="I13" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="30">
+        <v>229</v>
+      </c>
+      <c r="B14" s="30">
+        <v>160000</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="30">
+        <v>5</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="57">
+        <v>1</v>
+      </c>
+      <c r="I14" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="30">
+        <v>230</v>
+      </c>
+      <c r="B15" s="30">
+        <v>160000</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="30">
+        <v>5</v>
+      </c>
+      <c r="F15" s="30">
+        <v>1</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="57">
+        <v>3</v>
+      </c>
+      <c r="I15" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="30">
+        <v>231</v>
+      </c>
+      <c r="B16" s="30">
+        <v>160000</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="30">
+        <v>5</v>
+      </c>
+      <c r="F16" s="30">
+        <v>1</v>
+      </c>
+      <c r="G16" s="30">
+        <v>2</v>
+      </c>
+      <c r="H16" s="57">
+        <v>4</v>
+      </c>
+      <c r="I16" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="30">
+        <v>232</v>
+      </c>
+      <c r="B17" s="30">
+        <v>80000</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="30">
+        <v>2</v>
+      </c>
+      <c r="F17" s="30">
+        <v>1</v>
+      </c>
+      <c r="G17" s="30">
+        <v>2</v>
+      </c>
+      <c r="H17" s="57">
+        <v>4</v>
+      </c>
+      <c r="I17" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="30">
+        <v>233</v>
+      </c>
+      <c r="B18" s="30">
+        <v>80000</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="30">
+        <v>2</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0</v>
+      </c>
+      <c r="G18" s="30">
+        <v>0</v>
+      </c>
+      <c r="H18" s="57">
+        <v>2</v>
+      </c>
+      <c r="I18" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="30">
+        <v>234</v>
+      </c>
+      <c r="B19" s="30">
+        <v>80000</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" s="30">
+        <v>2</v>
+      </c>
+      <c r="F19" s="30">
+        <v>0</v>
+      </c>
+      <c r="G19" s="30">
+        <v>0</v>
+      </c>
+      <c r="H19" s="57">
+        <v>1</v>
+      </c>
+      <c r="I19" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="30">
+        <v>235</v>
+      </c>
+      <c r="B20" s="30">
+        <v>200000</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="30">
+        <v>6</v>
+      </c>
+      <c r="F20" s="30">
+        <v>0</v>
+      </c>
+      <c r="G20" s="30">
+        <v>0</v>
+      </c>
+      <c r="H20" s="57">
+        <v>1</v>
+      </c>
+      <c r="I20" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="30">
+        <v>236</v>
+      </c>
+      <c r="B21" s="30">
+        <v>200000</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="30">
+        <v>6</v>
+      </c>
+      <c r="F21" s="30">
+        <v>0</v>
+      </c>
+      <c r="G21" s="30">
+        <v>1</v>
+      </c>
+      <c r="H21" s="57">
+        <v>3</v>
+      </c>
+      <c r="I21" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="30">
+        <v>237</v>
+      </c>
+      <c r="B22" s="30">
+        <v>200000</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="30">
+        <v>6</v>
+      </c>
+      <c r="F22" s="30">
+        <v>1</v>
+      </c>
+      <c r="G22" s="30">
+        <v>1</v>
+      </c>
+      <c r="H22" s="57">
+        <v>4</v>
+      </c>
+      <c r="I22" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="30">
+        <v>238</v>
+      </c>
+      <c r="B23" s="30">
+        <v>125000</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" s="30">
+        <v>4</v>
+      </c>
+      <c r="F23" s="30">
+        <v>0</v>
+      </c>
+      <c r="G23" s="30">
+        <v>0</v>
+      </c>
+      <c r="H23" s="57">
+        <v>1</v>
+      </c>
+      <c r="I23" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="30">
+        <v>239</v>
+      </c>
+      <c r="B24" s="30">
+        <v>125000</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="30">
+        <v>4</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0</v>
+      </c>
+      <c r="G24" s="30">
+        <v>0</v>
+      </c>
+      <c r="H24" s="57">
+        <v>2</v>
+      </c>
+      <c r="I24" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="30">
+        <v>240</v>
+      </c>
+      <c r="B25" s="30">
+        <v>125000</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="30">
+        <v>4</v>
+      </c>
+      <c r="F25" s="30">
+        <v>1</v>
+      </c>
+      <c r="G25" s="30">
+        <v>1</v>
+      </c>
+      <c r="H25" s="57">
+        <v>3</v>
+      </c>
+      <c r="I25" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="30">
+        <v>241</v>
+      </c>
+      <c r="B26" s="30">
+        <v>125000</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="30">
+        <v>4</v>
+      </c>
+      <c r="F26" s="30">
+        <v>1</v>
+      </c>
+      <c r="G26" s="30">
+        <v>2</v>
+      </c>
+      <c r="H26" s="57">
+        <v>3</v>
+      </c>
+      <c r="I26" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="30">
+        <v>242</v>
+      </c>
+      <c r="B27" s="30">
+        <v>70000</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="30">
+        <v>2</v>
+      </c>
+      <c r="F27" s="30">
+        <v>1</v>
+      </c>
+      <c r="G27" s="30">
+        <v>2</v>
+      </c>
+      <c r="H27" s="57">
+        <v>4</v>
+      </c>
+      <c r="I27" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="30">
+        <v>243</v>
+      </c>
+      <c r="B28" s="30">
+        <v>70000</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" s="30">
+        <v>2</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0</v>
+      </c>
+      <c r="G28" s="30">
+        <v>0</v>
+      </c>
+      <c r="H28" s="57">
+        <v>2</v>
+      </c>
+      <c r="I28" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="30">
+        <v>244</v>
+      </c>
+      <c r="B29" s="30">
+        <v>70000</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="30">
+        <v>2</v>
+      </c>
+      <c r="F29" s="30">
+        <v>0</v>
+      </c>
+      <c r="G29" s="30">
+        <v>0</v>
+      </c>
+      <c r="H29" s="57">
+        <v>1</v>
+      </c>
+      <c r="I29" s="57">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.90625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="96"/>
+      <c r="D1" s="95" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="96"/>
+      <c r="F1" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="96"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F3" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" s="67">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="68">
+        <v>0</v>
+      </c>
+      <c r="D4" s="61">
+        <v>0</v>
+      </c>
+      <c r="E4" s="62">
+        <v>0</v>
+      </c>
+      <c r="F4" s="61">
+        <v>0</v>
+      </c>
+      <c r="G4" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" s="67">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="68">
+        <v>0</v>
+      </c>
+      <c r="D5" s="61">
+        <v>0</v>
+      </c>
+      <c r="E5" s="62">
+        <v>0</v>
+      </c>
+      <c r="F5" s="61">
+        <v>0</v>
+      </c>
+      <c r="G5" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B6" s="67">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="68">
+        <v>0</v>
+      </c>
+      <c r="D6" s="61">
+        <v>0</v>
+      </c>
+      <c r="E6" s="62">
+        <v>0</v>
+      </c>
+      <c r="F6" s="61">
+        <v>0</v>
+      </c>
+      <c r="G6" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="74" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B7" s="67">
+        <v>1</v>
+      </c>
+      <c r="C7" s="68">
+        <v>0</v>
+      </c>
+      <c r="D7" s="61">
+        <v>0</v>
+      </c>
+      <c r="E7" s="62">
+        <v>0</v>
+      </c>
+      <c r="F7" s="61">
+        <v>0</v>
+      </c>
+      <c r="G7" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" s="67">
+        <v>1</v>
+      </c>
+      <c r="C8" s="68">
+        <v>0</v>
+      </c>
+      <c r="D8" s="61">
+        <v>0</v>
+      </c>
+      <c r="E8" s="62">
+        <v>0</v>
+      </c>
+      <c r="F8" s="61">
+        <v>0</v>
+      </c>
+      <c r="G8" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B9" s="67">
+        <v>1</v>
+      </c>
+      <c r="C9" s="68">
+        <v>0</v>
+      </c>
+      <c r="D9" s="61">
+        <v>0</v>
+      </c>
+      <c r="E9" s="62">
+        <v>0</v>
+      </c>
+      <c r="F9" s="61">
+        <v>0</v>
+      </c>
+      <c r="G9" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B10" s="69">
+        <v>-2</v>
+      </c>
+      <c r="C10" s="68">
+        <v>0</v>
+      </c>
+      <c r="D10" s="63">
+        <v>-2</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0</v>
+      </c>
+      <c r="F10" s="69">
+        <v>-2</v>
+      </c>
+      <c r="G10" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B11" s="69">
+        <v>-1</v>
+      </c>
+      <c r="C11" s="68">
+        <v>0</v>
+      </c>
+      <c r="D11" s="63">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="62">
+        <v>0</v>
+      </c>
+      <c r="F11" s="69">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B12" s="67">
+        <v>0</v>
+      </c>
+      <c r="C12" s="64">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="61">
+        <v>0</v>
+      </c>
+      <c r="E12" s="64">
+        <v>5000</v>
+      </c>
+      <c r="F12" s="61">
+        <v>0</v>
+      </c>
+      <c r="G12" s="64">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="67">
+        <v>0</v>
+      </c>
+      <c r="C13" s="64">
+        <v>2</v>
+      </c>
+      <c r="D13" s="61">
+        <v>0</v>
+      </c>
+      <c r="E13" s="64">
+        <v>2</v>
+      </c>
+      <c r="F13" s="61">
+        <v>0</v>
+      </c>
+      <c r="G13" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="67">
+        <v>0</v>
+      </c>
+      <c r="C14" s="64">
+        <v>2</v>
+      </c>
+      <c r="D14" s="61">
+        <v>0</v>
+      </c>
+      <c r="E14" s="64">
+        <v>2</v>
+      </c>
+      <c r="F14" s="61">
+        <v>0</v>
+      </c>
+      <c r="G14" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="67">
+        <v>126</v>
+      </c>
+      <c r="C15" s="68">
+        <v>127</v>
+      </c>
+      <c r="D15" s="61">
+        <v>132</v>
+      </c>
+      <c r="E15" s="62">
+        <v>133</v>
+      </c>
+      <c r="F15" s="61">
+        <v>132</v>
+      </c>
+      <c r="G15" s="62">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="68">
+        <v>29</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F16" s="61"/>
+      <c r="G16" s="62">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" t="s">
-        <v>61</v>
-      </c>
+    </row>
+    <row r="18" spans="1:7" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="97"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D18:E18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1026B663-879F-4CCD-B5FE-5D9FC258E810}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140143C6-5C64-4EF9-BD21-2213E3B36CB2}">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.7265625" customWidth="1"/>
-    <col min="5" max="5" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="30">
+        <v>117</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="30">
+        <v>5</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
+        <v>80000</v>
+      </c>
+      <c r="F3" s="30">
+        <v>20000</v>
+      </c>
+      <c r="G3" s="30">
+        <v>50000</v>
+      </c>
+      <c r="H3" s="30">
+        <v>4000</v>
+      </c>
+      <c r="I3" s="30">
+        <v>3</v>
+      </c>
+      <c r="J3" s="30">
         <v>21</v>
       </c>
-      <c r="B1" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="30">
+        <v>118</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="30">
+        <v>5</v>
+      </c>
+      <c r="D4" s="30">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="30">
+        <v>110000</v>
+      </c>
+      <c r="F4" s="30">
+        <v>30000</v>
+      </c>
+      <c r="G4" s="30">
+        <v>65000</v>
+      </c>
+      <c r="H4" s="30">
+        <v>6000</v>
+      </c>
+      <c r="I4" s="30">
+        <v>4</v>
+      </c>
+      <c r="J4" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="30">
+        <v>119</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="30">
+        <v>5</v>
+      </c>
+      <c r="D5" s="30">
+        <v>15000</v>
+      </c>
+      <c r="E5" s="30">
+        <v>130000</v>
+      </c>
+      <c r="F5" s="30">
+        <v>40000</v>
+      </c>
+      <c r="G5" s="30">
+        <v>80000</v>
+      </c>
+      <c r="H5" s="30">
+        <v>8000</v>
+      </c>
+      <c r="I5" s="30">
+        <v>5</v>
+      </c>
+      <c r="J5" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="30">
+        <v>120</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="30">
+        <v>5</v>
+      </c>
+      <c r="D6" s="30">
+        <v>30000</v>
+      </c>
+      <c r="E6" s="30">
+        <v>170000</v>
+      </c>
+      <c r="F6" s="30">
+        <v>50000</v>
+      </c>
+      <c r="G6" s="30">
+        <v>100000</v>
+      </c>
+      <c r="H6" s="30">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="30">
+        <v>6</v>
+      </c>
+      <c r="J6" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="30">
+        <v>121</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="30">
+        <v>5</v>
+      </c>
+      <c r="D7" s="30">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="30">
+        <v>200000</v>
+      </c>
+      <c r="F7" s="30">
+        <v>65000</v>
+      </c>
+      <c r="G7" s="30">
+        <v>120000</v>
+      </c>
+      <c r="H7" s="30">
+        <v>13000</v>
+      </c>
+      <c r="I7" s="30">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
+      <c r="J7" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="30">
+        <v>122</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="30">
+        <v>5</v>
+      </c>
+      <c r="D8" s="30">
+        <v>80000</v>
+      </c>
+      <c r="E8" s="30">
+        <v>300000</v>
+      </c>
+      <c r="F8" s="30">
+        <v>105000</v>
+      </c>
+      <c r="G8" s="30">
+        <v>180000</v>
+      </c>
+      <c r="H8" s="30">
+        <v>21000</v>
+      </c>
+      <c r="I8" s="30">
+        <v>8</v>
+      </c>
+      <c r="J8" s="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="30">
+        <v>123</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="30">
+        <v>5</v>
+      </c>
+      <c r="D11" s="30">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
+        <v>80000</v>
+      </c>
+      <c r="F11" s="30">
+        <v>30000</v>
+      </c>
+      <c r="G11" s="30">
+        <v>60000</v>
+      </c>
+      <c r="H11" s="30">
+        <v>4000</v>
+      </c>
+      <c r="I11" s="30">
+        <v>3</v>
+      </c>
+      <c r="J11" s="30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="30">
+        <v>124</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="30">
+        <v>5</v>
+      </c>
+      <c r="D12" s="30">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="30">
+        <v>110000</v>
+      </c>
+      <c r="F12" s="30">
+        <v>40000</v>
+      </c>
+      <c r="G12" s="30">
+        <v>75000</v>
+      </c>
+      <c r="H12" s="30">
+        <v>6000</v>
+      </c>
+      <c r="I12" s="30">
+        <v>4</v>
+      </c>
+      <c r="J12" s="30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="30">
+        <v>125</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="30">
+        <v>5</v>
+      </c>
+      <c r="D13" s="30">
+        <v>15000</v>
+      </c>
+      <c r="E13" s="30">
+        <v>130000</v>
+      </c>
+      <c r="F13" s="30">
+        <v>50000</v>
+      </c>
+      <c r="G13" s="30">
+        <v>90000</v>
+      </c>
+      <c r="H13" s="30">
+        <v>8000</v>
+      </c>
+      <c r="I13" s="30">
+        <v>5</v>
+      </c>
+      <c r="J13" s="30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="30">
+        <v>126</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="30">
+        <v>5</v>
+      </c>
+      <c r="D14" s="30">
+        <v>30000</v>
+      </c>
+      <c r="E14" s="30">
+        <v>170000</v>
+      </c>
+      <c r="F14" s="30">
+        <v>60000</v>
+      </c>
+      <c r="G14" s="30">
+        <v>110000</v>
+      </c>
+      <c r="H14" s="30">
+        <v>10000</v>
+      </c>
+      <c r="I14" s="30">
+        <v>6</v>
+      </c>
+      <c r="J14" s="30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="30">
+        <v>127</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="30">
+        <v>5</v>
+      </c>
+      <c r="D15" s="30">
+        <v>50000</v>
+      </c>
+      <c r="E15" s="30">
+        <v>200000</v>
+      </c>
+      <c r="F15" s="30">
+        <v>75000</v>
+      </c>
+      <c r="G15" s="30">
+        <v>130000</v>
+      </c>
+      <c r="H15" s="30">
+        <v>13000</v>
+      </c>
+      <c r="I15" s="30">
         <v>7</v>
       </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5">
+      <c r="J15" s="30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="30">
+        <v>128</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="30">
+        <v>5</v>
+      </c>
+      <c r="D16" s="30">
+        <v>80000</v>
+      </c>
+      <c r="E16" s="30">
+        <v>300000</v>
+      </c>
+      <c r="F16" s="30">
+        <v>115000</v>
+      </c>
+      <c r="G16" s="30">
+        <v>190000</v>
+      </c>
+      <c r="H16" s="30">
+        <v>21000</v>
+      </c>
+      <c r="I16" s="30">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>13</v>
+      <c r="J16" s="30">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F32646D-7C7C-4AAB-A792-B2FF06D01AEF}">
-  <sheetPr codeName="Sheet5"/>
+  <sheetPr codeName="Sheet5">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O18"/>
+      <selection activeCell="B2" sqref="B2:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2456,64 +6392,64 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="54" t="s">
-        <v>80</v>
+      <c r="A2" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="102" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B4" s="9">
         <v>50</v>
@@ -2559,7 +6495,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B5" s="9">
         <v>65</v>
@@ -2605,7 +6541,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B6" s="9">
         <v>80</v>
@@ -2651,7 +6587,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B7" s="9">
         <v>100</v>
@@ -2697,7 +6633,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B8" s="9">
         <v>120</v>
@@ -2743,7 +6679,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B9" s="9">
         <v>180</v>
@@ -2789,7 +6725,7 @@
     </row>
     <row r="10" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B10" s="14">
         <v>10</v>
@@ -2810,74 +6746,74 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="O11" s="55"/>
+      <c r="A11" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="104"/>
     </row>
     <row r="12" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="56"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="82"/>
       <c r="N12" s="6" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B13" s="9">
         <f>B4+$B$10</f>
@@ -2933,7 +6869,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B14" s="9">
         <f t="shared" ref="B14:B18" si="7">B5+$B$10</f>
@@ -2989,7 +6925,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B15" s="9">
         <f t="shared" si="7"/>
@@ -3045,7 +6981,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B16" s="9">
         <f t="shared" si="7"/>
@@ -3101,7 +7037,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B17" s="9">
         <f t="shared" si="7"/>
@@ -3157,7 +7093,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B18" s="9">
         <f t="shared" si="7"/>
@@ -3213,12 +7149,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:O11"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
@@ -3235,11 +7170,12 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3247,12 +7183,929 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1026B663-879F-4CCD-B5FE-5D9FC258E810}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="106"/>
+      <c r="G1" s="107"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="77">
+        <v>7</v>
+      </c>
+      <c r="C3" s="30">
+        <v>10</v>
+      </c>
+      <c r="D3" s="78">
+        <v>10</v>
+      </c>
+      <c r="E3" s="77">
+        <v>7</v>
+      </c>
+      <c r="F3" s="30">
+        <v>10</v>
+      </c>
+      <c r="G3" s="78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="77">
+        <v>10</v>
+      </c>
+      <c r="C4" s="30">
+        <v>10</v>
+      </c>
+      <c r="D4" s="78">
+        <v>7</v>
+      </c>
+      <c r="E4" s="77">
+        <v>9</v>
+      </c>
+      <c r="F4" s="30">
+        <v>9</v>
+      </c>
+      <c r="G4" s="78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="79">
+        <v>8</v>
+      </c>
+      <c r="C5" s="80">
+        <v>6</v>
+      </c>
+      <c r="D5" s="81">
+        <v>8</v>
+      </c>
+      <c r="E5" s="79">
+        <v>6</v>
+      </c>
+      <c r="F5" s="80">
+        <v>4</v>
+      </c>
+      <c r="G5" s="81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4660EDB9-8B08-4543-8B03-08FDD0643397}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30"/>
+      <c r="B1" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+    </row>
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="57">
+        <v>12000</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="30">
+        <v>1</v>
+      </c>
+      <c r="E3" s="30">
+        <v>1</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="30">
+        <v>0</v>
+      </c>
+      <c r="H3" s="30">
+        <v>0</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="57">
+        <v>6000</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="57">
+        <v>12000</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="57">
+        <v>10000</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="57">
+        <v>6000</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="57">
+        <v>20000</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30">
+        <v>0</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="57">
+        <v>8000</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="57">
+        <v>20000</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="30">
+        <v>1</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="57">
+        <v>8000</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="57">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
+        <v>1</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="57">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="57">
+        <v>5</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="30">
+        <v>1</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="57">
+        <v>2.5</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="57">
+        <v>10</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="30">
+        <v>2</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="G10" s="30">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="57">
+        <v>5</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="57">
+        <v>10</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="30">
+        <v>1</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="G11" s="30">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="57">
+        <v>5</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="57">
+        <v>10</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="30">
+        <v>0</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30">
+        <v>1</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="J12" s="57">
+        <v>2</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1FE3BE-65E4-42DF-9904-935E304C7136}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="33">
+        <v>4</v>
+      </c>
+      <c r="C3" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="33">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="33">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="33">
+        <v>4</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="33">
+        <v>1</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="33">
+        <v>5</v>
+      </c>
+      <c r="C8" s="33">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="33">
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="33">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="33">
+        <v>5</v>
+      </c>
+      <c r="C10" s="33">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="33">
+        <v>3</v>
+      </c>
+      <c r="C11" s="33">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="33">
+        <v>2</v>
+      </c>
+      <c r="C12" s="33">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="33">
+        <v>5</v>
+      </c>
+      <c r="C13" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="33">
+        <v>2</v>
+      </c>
+      <c r="C14" s="33">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="33">
+        <v>2</v>
+      </c>
+      <c r="C15" s="33">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="33">
+        <v>5</v>
+      </c>
+      <c r="C16" s="33">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="33">
+        <v>5</v>
+      </c>
+      <c r="C17" s="33">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="33">
+        <v>2</v>
+      </c>
+      <c r="C18" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="48">
+        <v>5</v>
+      </c>
+      <c r="C19" s="48">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="38">
+        <v>3</v>
+      </c>
+      <c r="C20" s="38">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="38">
+        <v>4</v>
+      </c>
+      <c r="C21" s="38">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="38">
+        <v>3</v>
+      </c>
+      <c r="C22" s="33">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="38">
+        <v>3</v>
+      </c>
+      <c r="C23" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="38">
+        <v>3</v>
+      </c>
+      <c r="C24" s="38">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="38">
+        <v>3</v>
+      </c>
+      <c r="C25" s="38">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="48">
+        <v>4</v>
+      </c>
+      <c r="C26" s="48">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="33">
+        <v>4</v>
+      </c>
+      <c r="C27" s="33">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="33">
+        <v>4</v>
+      </c>
+      <c r="C28" s="33">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337F11A2-48FA-4787-B5CA-B5B26610DD3E}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3266,67 +8119,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C1" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="C1" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
       <c r="H1" s="12" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="42">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="60" t="s">
-        <v>97</v>
+      <c r="B3" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="110" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="62"/>
-      <c r="C4" s="60"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="9" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+        <v>76</v>
+      </c>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
     </row>
     <row r="5" spans="1:8" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C5" s="26">
         <v>1</v>
@@ -3353,7 +8206,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C6" s="26">
         <v>2</v>
@@ -3380,7 +8233,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C7" s="26">
         <v>3</v>
@@ -3398,7 +8251,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="50.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
@@ -3406,7 +8259,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="12"/>
@@ -3420,7 +8273,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="12"/>
@@ -3434,7 +8287,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C10" s="26">
         <v>4</v>
@@ -3461,7 +8314,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C11" s="26">
         <v>5</v>
@@ -3470,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F11" s="23">
         <v>0</v>
@@ -3488,7 +8341,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C12" s="26">
         <v>6</v>
@@ -3512,7 +8365,7 @@
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="22" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="12"/>
@@ -3523,17 +8376,17 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="22" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C14" s="26">
         <v>7</v>
       </c>
-      <c r="D14" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="61"/>
+      <c r="D14" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="111"/>
       <c r="F14" s="41" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="G14" s="43">
         <v>0.1</v>
@@ -3544,13 +8397,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="22" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C15" s="26">
         <v>8</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="23">
         <v>1</v>
       </c>
@@ -3563,13 +8416,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="22" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C16" s="26">
         <v>9</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="12">
         <v>1</v>
       </c>
@@ -3582,13 +8435,13 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="22" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C17" s="26">
         <v>10</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="12">
         <v>2</v>
       </c>
@@ -3614,15 +8467,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA259225-710D-4DF9-9D2D-5D3112902286}">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3635,46 +8488,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="92"/>
+      <c r="A1" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="118"/>
     </row>
     <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B3" s="37">
         <v>70</v>
@@ -3683,7 +8536,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
@@ -3691,7 +8544,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B4" s="37">
         <v>125</v>
@@ -3700,7 +8553,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
@@ -3708,7 +8561,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B5" s="37">
         <v>200</v>
@@ -3717,7 +8570,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -3725,7 +8578,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B6" s="37">
         <v>80</v>
@@ -3734,7 +8587,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
@@ -3742,7 +8595,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B7" s="37">
         <v>160</v>
@@ -3751,7 +8604,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
@@ -3759,7 +8612,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B8" s="37">
         <v>300</v>
@@ -3768,7 +8621,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
@@ -3776,7 +8629,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B9" s="37">
         <v>160</v>
@@ -3785,7 +8638,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -3793,7 +8646,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B10" s="37">
         <v>100</v>
@@ -3802,7 +8655,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -3810,7 +8663,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B11" s="37">
         <v>200</v>
@@ -3819,7 +8672,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -3827,7 +8680,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B12" s="37">
         <v>425</v>
@@ -3836,7 +8689,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -3844,7 +8697,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B13" s="37">
         <v>70</v>
@@ -3853,17 +8706,17 @@
         <v>2</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B14" s="37">
         <v>125</v>
@@ -3872,17 +8725,17 @@
         <v>4</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B15" s="37">
         <v>80</v>
@@ -3891,17 +8744,17 @@
         <v>2</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B16" s="37">
         <v>300</v>
@@ -3910,17 +8763,17 @@
         <v>8</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="35" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="33" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B17" s="37">
         <v>200</v>
@@ -3929,17 +8782,17 @@
         <v>6</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B18" s="37">
         <v>125</v>
@@ -3948,19 +8801,19 @@
         <v>4</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="33" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B19" s="37">
         <v>200</v>
@@ -3969,53 +8822,53 @@
         <v>6</v>
       </c>
       <c r="D19" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="125" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="126">
+        <v>160</v>
+      </c>
+      <c r="C20" s="128">
+        <v>5</v>
+      </c>
+      <c r="D20" s="123" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="123" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="125"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="38" t="s">
         <v>120</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" s="83">
-        <v>160</v>
-      </c>
-      <c r="C20" s="85">
-        <v>5</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="82"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="38" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B22" s="39">
         <v>300</v>
@@ -4024,17 +8877,17 @@
         <v>8</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="36" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B23" s="39">
         <v>100</v>
@@ -4043,19 +8896,19 @@
         <v>3</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="38" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B24" s="39">
         <v>70</v>
@@ -4064,205 +8917,205 @@
         <v>2</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="80">
+      <c r="A25" s="119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="120">
         <v>200</v>
       </c>
-      <c r="C25" s="87">
+      <c r="C25" s="122">
         <v>6</v>
       </c>
-      <c r="D25" s="64" t="s">
-        <v>121</v>
+      <c r="D25" s="129" t="s">
+        <v>98</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="86"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="93"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="130"/>
       <c r="E26" s="38" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="80">
+      <c r="A27" s="119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="120">
         <v>80</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="122">
         <v>2</v>
       </c>
-      <c r="D27" s="93" t="s">
-        <v>121</v>
+      <c r="D27" s="130" t="s">
+        <v>98</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="86"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="65"/>
+      <c r="A28" s="119"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="131"/>
       <c r="E28" s="38" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="80">
+      <c r="A29" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="120">
         <v>425</v>
       </c>
-      <c r="C29" s="87">
+      <c r="C29" s="122">
         <v>9</v>
       </c>
-      <c r="D29" s="64" t="s">
-        <v>121</v>
+      <c r="D29" s="129" t="s">
+        <v>98</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="86"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="65"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="131"/>
       <c r="E30" s="38" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="83">
+      <c r="A31" s="125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="126">
         <v>160</v>
       </c>
-      <c r="C31" s="85">
+      <c r="C31" s="128">
         <v>5</v>
       </c>
-      <c r="D31" s="66" t="s">
-        <v>121</v>
+      <c r="D31" s="123" t="s">
+        <v>98</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="82"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="67"/>
+      <c r="A32" s="125"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="124"/>
       <c r="E32" s="38" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="80">
+      <c r="A33" s="135" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="120">
         <v>200</v>
       </c>
-      <c r="C33" s="77">
+      <c r="C33" s="141">
         <v>6</v>
       </c>
-      <c r="D33" s="68" t="s">
-        <v>121</v>
+      <c r="D33" s="132" t="s">
+        <v>98</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="73"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="69"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="133"/>
       <c r="E34" s="38" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B35" s="74">
+      <c r="A35" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="138">
         <v>125</v>
       </c>
-      <c r="C35" s="77">
+      <c r="C35" s="141">
         <v>4</v>
       </c>
-      <c r="D35" s="68" t="s">
-        <v>121</v>
+      <c r="D35" s="132" t="s">
+        <v>98</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="72"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="70"/>
+      <c r="A36" s="136"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="134"/>
       <c r="E36" s="38" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="73"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="69"/>
+      <c r="A37" s="137"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="133"/>
       <c r="E37" s="38" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -4270,6 +9123,22 @@
   </sheetData>
   <autoFilter ref="A2:G37" xr:uid="{5794BF37-903A-4658-A38A-A32201B05EBB}"/>
   <mergeCells count="32">
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -4286,23 +9155,327 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100118EEF6083EBB84AB54FBFE6630ADBEB" ma:contentTypeVersion="19" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="f629dd2694b823a292a3d6993b38e3fb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5de537f3-634d-4bde-b6cc-f829a423526f" xmlns:ns4="3d672796-0516-4220-9f78-87cdc535f285" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ae6de4c251fc9128b012485a4694719" ns3:_="" ns4:_="">
+    <xsd:import namespace="5de537f3-634d-4bde-b6cc-f829a423526f"/>
+    <xsd:import namespace="3d672796-0516-4220-9f78-87cdc535f285"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceBillingMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5de537f3-634d-4bde-b6cc-f829a423526f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="22" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="24" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3d672796-0516-4220-9f78-87cdc535f285" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="19" nillable="true" ma:displayName="Hint-hash delen" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5de537f3-634d-4bde-b6cc-f829a423526f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10D8D092-C77B-481B-AEBD-120D4B296784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5de537f3-634d-4bde-b6cc-f829a423526f"/>
+    <ds:schemaRef ds:uri="3d672796-0516-4220-9f78-87cdc535f285"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17356544-6C26-4B13-9D44-43CE4A9826E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393E55A6-B09D-4422-B02A-15A9FB18DC2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="3d672796-0516-4220-9f78-87cdc535f285"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5de537f3-634d-4bde-b6cc-f829a423526f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>